--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -65,9 +83,6 @@
     <t>NEROTONEX 20 CAPS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>225.00</t>
   </si>
   <si>
@@ -77,16 +92,25 @@
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>98.00</t>
   </si>
   <si>
     <t>49.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:29 AM</t>
+    <t>حامل زراع زولا</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Monday, 16 June, 2025 10:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,18 +790,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -786,66 +810,132 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>200.5</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>274.5</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +959,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -44,15 +44,39 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>BISOLOCK-D 5/12.5MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>17.00</t>
   </si>
   <si>
@@ -77,9 +101,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>NEROTONEX 20 CAPS</t>
   </si>
   <si>
@@ -98,6 +119,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
@@ -107,10 +134,25 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Monday, 16 June, 2025 10:11 AM</t>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Monday, 16 June, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -768,7 +810,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -777,31 +819,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -810,31 +852,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -843,31 +885,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,66 +918,231 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>274.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>24</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>27</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>27</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>27</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>45</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>398.5</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>47</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>48</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>49</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1176,35 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -59,21 +59,24 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>BETAPRONATE PLUS CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 5/12.5MG 20 F.C.TAB</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -125,6 +128,18 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
@@ -152,7 +167,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:43 AM</t>
+    <t>Monday, 16 June, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -843,7 +858,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -852,14 +867,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -869,14 +884,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -885,31 +900,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -918,28 +933,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -951,28 +966,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -984,14 +999,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1001,14 +1016,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1017,31 +1032,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1050,31 +1065,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1083,66 +1098,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>46</v>
       </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>398.5</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>21</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>28</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>47</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>48</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>49</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>28</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>50</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>452.5</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>53</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>54</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1201,10 +1282,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -167,7 +167,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:51 AM</t>
+    <t>Monday, 16 June, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -167,7 +179,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:52 AM</t>
+    <t>Monday, 16 June, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,7 +919,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,14 +929,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -940,24 +952,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,28 +978,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -999,28 +1011,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1032,14 +1044,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1049,14 +1061,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1065,14 +1077,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1082,11 +1094,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1105,21 +1117,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1131,28 +1143,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1164,7 +1176,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1177,53 +1189,86 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>452.5</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>52</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>53</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>32</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>54</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>475.5</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>56</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>57</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>58</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1292,10 +1337,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:56 AM</t>
+    <t>Monday, 16 June, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:30 AM</t>
+    <t>Monday, 16 June, 2025 11:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -77,6 +77,30 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -176,10 +200,22 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Monday, 16 June, 2025 11:38 AM</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Monday, 16 June, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -936,7 +972,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -952,7 +988,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -991,18 +1027,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,7 +1047,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1024,18 +1060,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1051,21 +1087,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1077,7 +1113,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1090,18 +1126,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,14 +1146,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1127,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,28 +1179,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1176,28 +1212,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1209,66 +1245,165 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>475.5</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>56</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>57</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>58</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>40</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>21</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>40</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>546.70000000000005</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1342,10 +1477,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -215,7 +227,22 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:40 AM</t>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Monday, 16 June, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1081,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1064,14 +1091,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1087,24 +1114,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,28 +1140,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1146,28 +1173,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1179,14 +1206,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1223,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1239,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,11 +1256,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1252,21 +1279,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1278,28 +1305,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1311,7 +1338,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1324,18 +1351,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1357,7 +1384,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1368,42 +1395,141 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>546.70000000000005</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>68</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>44</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>70</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>21</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>44</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>70</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>74</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>44</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>615.70000000000005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>77</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>78</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>79</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1618,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:42 AM</t>
+    <t>Monday, 16 June, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -137,15 +137,27 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -176,12 +188,18 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -242,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:43 AM</t>
+    <t>Monday, 16 June, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1164,7 +1182,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1180,7 +1198,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1190,11 +1208,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1206,28 +1224,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1239,14 +1257,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,14 +1274,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1289,11 +1307,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1318,7 +1336,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1345,13 +1363,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1378,7 +1396,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1395,7 +1413,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1404,7 +1422,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1421,11 +1439,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1437,7 +1455,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1470,14 +1488,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1487,49 +1505,115 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>615.70000000000005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>44</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>76</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>78</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>79</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>80</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>44</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>730.70000000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>83</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>85</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1633,10 +1717,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:50 AM</t>
+    <t>Monday, 16 June, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -197,13 +197,22 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>حامل زراع زولا</t>
@@ -1363,7 +1372,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1396,13 +1405,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1413,7 +1422,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1429,7 +1438,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1479,7 +1488,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,7 +1497,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1505,14 +1514,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1538,11 +1547,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1571,49 +1580,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>730.70000000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>83</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>44</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>84</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>826.70000000000005</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>86</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>87</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>88</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1727,10 +1769,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:53 AM</t>
+    <t>Monday, 16 June, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -104,111 +104,114 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>HALONACE 5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEROTONEX 20 CAPS</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>112.5000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>HALONACE 5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEROTONEX 20 CAPS</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>112.5000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -269,7 +272,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:24 PM</t>
+    <t>Monday, 16 June, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1092,7 +1095,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1101,14 +1104,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,11 +1121,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>17</v>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1151,14 +1154,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1339,7 +1342,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1405,7 +1408,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1418,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,14 +1434,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,11 +1451,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1464,7 +1467,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1481,11 +1484,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1497,7 +1500,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1514,14 +1517,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,7 +1533,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1547,11 +1550,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1563,7 +1566,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1580,11 +1583,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1596,14 +1599,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1613,11 +1616,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1625,13 +1628,13 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="P29" s="13">
-        <v>826.70000000000005</v>
+        <v>849.70000000000005</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c t="s" r="A30" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1639,13 +1642,13 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c t="s" r="G30" s="15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
       <c t="s" r="K30" s="17">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:25 PM</t>
+    <t>Monday, 16 June, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -1627,38 +1639,71 @@
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>849.70000000000005</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>87</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>88</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>44</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>869.70000000000005</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +1822,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:42 PM</t>
+    <t>Monday, 16 June, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -128,6 +128,33 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -152,6 +179,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -242,10 +272,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -284,7 +311,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:48 PM</t>
+    <t>Monday, 16 June, 2025 12:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1173,7 +1200,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1195,15 +1222,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1215,31 +1242,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,7 +1275,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1261,18 +1288,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,31 +1308,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,11 +1358,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1347,31 +1374,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,7 +1407,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1393,18 +1420,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,28 +1473,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1479,28 +1506,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1512,7 +1539,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1525,18 +1552,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,31 +1572,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,20 +1605,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1611,28 +1638,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1644,66 +1671,198 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>21</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>53</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c t="s" r="Q30" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>869.70000000000005</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>91</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>53</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>89</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>92</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>93</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>53</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>94</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>96</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>97</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>53</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>98</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1007.925</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>100</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1986,30 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -281,12 +281,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -311,7 +314,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:50 PM</t>
+    <t>Monday, 16 June, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1728,7 +1731,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,7 +1761,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1770,14 +1773,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1787,11 +1790,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1803,14 +1806,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1820,11 +1823,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1832,13 +1835,13 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1007.925</v>
+        <v>1010.925</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1846,13 +1849,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>112.5000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -314,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 12:55 PM</t>
+    <t>Monday, 16 June, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1459,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1467,7 +1476,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1483,7 +1492,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1497,10 +1506,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1535,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1549,7 +1558,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1582,7 +1591,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1608,20 +1617,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1632,7 +1641,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1648,7 +1657,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1698,7 +1707,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,7 +1740,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,14 +1782,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1790,11 +1799,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1823,49 +1832,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1010.925</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>100</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>101</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>53</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>102</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1029.925</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>104</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>105</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>106</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2009,10 +2051,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:09 PM</t>
+    <t>Monday, 16 June, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:12 PM</t>
+    <t>Monday, 16 June, 2025 1:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:13 PM</t>
+    <t>Monday, 16 June, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:18 PM</t>
+    <t>Monday, 16 June, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 5/12.5MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -257,6 +266,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
@@ -317,13 +335,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Monday, 16 June, 2025 1:26 PM</t>
+    <t>Monday, 16 June, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1042,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1040,11 +1052,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>17</v>
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1073,14 +1085,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1089,14 +1101,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1106,14 +1118,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1122,14 +1134,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1139,14 +1151,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1155,14 +1167,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1172,14 +1184,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1212,7 +1224,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1228,7 +1240,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,14 +1250,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1261,7 +1273,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,7 +1283,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1294,7 +1306,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1311,7 +1323,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1327,24 +1339,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1353,28 +1365,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1386,31 +1398,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,20 +1431,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1459,13 +1471,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1476,7 +1488,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1492,7 +1504,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1509,7 +1521,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1525,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1539,10 +1551,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1591,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1624,7 +1636,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,20 +1662,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1674,7 +1686,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1690,13 +1702,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1723,13 +1735,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1740,7 +1752,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1756,13 +1768,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1773,7 +1785,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1789,24 +1801,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,20 +1827,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1839,7 +1851,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1855,59 +1867,125 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>103</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1029.925</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>56</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>104</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>106</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>56</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>86</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1256.925</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>108</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>109</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>110</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2056,10 +2134,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:31 PM</t>
+    <t>Monday, 16 June, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -317,6 +317,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -335,7 +338,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:32 PM</t>
+    <t>Monday, 16 June, 2025 1:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1903,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1943,49 +1946,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>108</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>56</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>86</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1256.925</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>108</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c t="s" r="Q37" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1279.925</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>109</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
         <v>110</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>111</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2144,10 +2180,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -338,7 +338,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 1:33 PM</t>
+    <t>Monday, 16 June, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -338,7 +350,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 2:18 PM</t>
+    <t>Monday, 16 June, 2025 4:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1161,7 +1173,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1194,7 +1206,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1220,14 +1232,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1243,7 +1255,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1286,14 +1298,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,14 +1314,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1319,11 +1331,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1335,7 +1347,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1352,14 +1364,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,31 +1380,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1401,28 +1413,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1434,31 +1446,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1474,21 +1486,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1500,31 +1512,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1533,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1550,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,14 +1611,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,11 +1628,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1649,11 +1661,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1689,7 +1701,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1705,7 +1717,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1731,28 +1743,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1764,28 +1776,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1797,7 +1809,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1810,18 +1822,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1830,7 +1842,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1843,18 +1855,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1863,7 +1875,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1876,18 +1888,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1896,28 +1908,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1929,28 +1941,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -1975,53 +1987,86 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1279.925</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>109</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>110</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>111</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>112</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>60</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>90</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1287.845</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>113</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>114</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>115</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2185,10 +2230,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -233,6 +242,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -350,7 +371,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 4:59 PM</t>
+    <t>Monday, 16 June, 2025 5:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,7 +1408,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1420,24 +1441,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,28 +1467,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1479,31 +1500,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,20 +1533,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1552,13 +1573,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1569,7 +1590,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1585,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1602,7 +1623,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1618,24 +1639,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,7 +1698,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1694,11 +1715,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1710,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1734,7 +1755,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1750,7 +1771,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1783,24 +1804,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,28 +1830,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1842,31 +1863,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,7 +1896,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1888,18 +1909,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,7 +1929,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1921,18 +1942,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1941,31 +1962,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1974,20 +1995,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -1995,7 +2016,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2007,66 +2028,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1287.845</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>113</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>114</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>115</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>63</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>116</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>119</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>63</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>97</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1432.845</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>120</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>121</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>122</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2235,10 +2322,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:13 PM</t>
+    <t>Monday, 16 June, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -149,6 +149,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -189,9 +198,6 @@
   </si>
   <si>
     <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
   </si>
   <si>
     <t>HEDERA HELIX SYRAP</t>
@@ -1309,7 +1315,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1326,7 +1332,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1385,7 +1391,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1408,7 +1414,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1425,7 +1431,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1474,24 +1480,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,28 +1506,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1533,31 +1539,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,28 +1572,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1599,31 +1605,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,31 +1638,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,28 +1671,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1698,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1744,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1752,7 +1758,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,11 +1787,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1797,14 +1803,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1820,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,28 +1869,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1896,28 +1902,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1929,7 +1935,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1942,18 +1948,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,7 +1968,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1975,18 +1981,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,7 +2001,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2008,18 +2014,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2035,21 +2041,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2061,28 +2067,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2094,66 +2100,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1432.845</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>120</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>121</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>65</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>99</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1466.845</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>122</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>123</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>124</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2332,10 +2371,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:14 PM</t>
+    <t>Monday, 16 June, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -338,7 +350,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -377,7 +389,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:16 PM</t>
+    <t>Monday, 16 June, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1436,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1440,14 +1452,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1469,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,14 +1485,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,11 +1502,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>41</v>
@@ -1506,20 +1518,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1527,10 +1539,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,28 +1551,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1572,31 +1584,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,21 +1624,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1638,31 +1650,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,20 +1683,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1695,7 +1707,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,21 +1723,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1799,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1860,7 +1872,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1876,7 +1888,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,28 +1914,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1935,28 +1947,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1968,7 +1980,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1981,18 +1993,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,7 +2013,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2014,18 +2026,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,7 +2046,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2047,18 +2059,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,28 +2079,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2100,28 +2112,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2146,53 +2158,86 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1466.845</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>122</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>123</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>124</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>125</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>69</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>103</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1480.7249999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>126</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>127</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>128</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2376,10 +2421,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -206,6 +206,21 @@
     <t>118.0000</t>
   </si>
   <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -389,7 +404,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:41 PM</t>
+    <t>Monday, 16 June, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1540,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1539,10 +1554,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1551,31 +1566,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1584,14 +1599,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1617,20 +1632,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1641,7 +1656,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1657,24 +1672,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,31 +1698,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,28 +1731,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1766,14 +1781,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1782,31 +1797,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1822,7 +1837,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1839,7 +1854,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1869,7 +1884,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1931,11 +1946,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1947,31 +1962,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,28 +1995,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2013,31 +2028,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2046,7 +2061,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2059,18 +2074,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,7 +2094,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2092,18 +2107,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2119,24 +2134,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2145,24 +2160,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2185,59 +2200,125 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1480.7249999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>126</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>74</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>127</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>129</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>130</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>74</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>108</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1573.385</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>131</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>132</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>133</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2426,10 +2507,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -149,6 +149,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
@@ -212,15 +218,9 @@
     <t>118.00</t>
   </si>
   <si>
-    <t>59.0000</t>
-  </si>
-  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -242,6 +242,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -299,9 +308,6 @@
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -365,7 +371,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -404,7 +410,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:43 PM</t>
+    <t>Monday, 16 June, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1348,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1352,14 +1358,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,14 +1374,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1385,14 +1391,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1401,14 +1407,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1418,11 +1424,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1434,14 +1440,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1451,14 +1457,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1467,14 +1473,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,11 +1490,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1500,14 +1506,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1517,14 +1523,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1550,14 +1556,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1566,14 +1572,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1632,31 +1638,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1665,28 +1671,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1698,28 +1704,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1731,31 +1737,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1764,31 +1770,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1797,14 +1803,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,11 +1820,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1830,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1863,31 +1869,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1929,7 +1935,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1946,11 +1952,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1962,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1979,14 +1985,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,14 +2001,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2012,11 +2018,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2028,31 +2034,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,28 +2067,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2094,14 +2100,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,14 +2117,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,7 +2133,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,7 +2166,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2177,14 +2183,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2243,11 +2249,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2259,14 +2265,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2276,49 +2282,115 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1573.385</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>127</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>128</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>74</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>129</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>131</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>132</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>74</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>110</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1680.915</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>133</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>134</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>135</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2517,10 +2589,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:49 PM</t>
+    <t>Monday, 16 June, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -347,6 +356,24 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
@@ -395,22 +422,13 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:51 PM</t>
+    <t>Monday, 16 June, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,7 +1960,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,11 +2003,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2008,7 +2026,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2041,7 +2059,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2091,7 +2109,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2107,13 +2125,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2140,7 +2158,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2206,7 +2224,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2223,7 +2241,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2348,49 +2366,148 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1680.915</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>133</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>134</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>135</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>38</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>74</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>39</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>136</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>116</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>74</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>117</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>137</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>138</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>74</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>113</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1759.915</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>139</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>140</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>141</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2599,10 +2716,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -428,7 +440,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 5:53 PM</t>
+    <t>Monday, 16 June, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1317,7 +1329,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,14 +1355,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1366,7 +1378,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1376,14 +1388,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,11 +1553,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,20 +1701,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1710,10 +1722,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,31 +1734,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,31 +1800,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,21 +1840,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1854,31 +1866,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,20 +1899,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1911,7 +1923,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1927,21 +1939,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,11 +2015,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2109,7 +2121,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2125,7 +2137,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,20 +2163,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2197,15 +2209,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2217,28 +2229,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2250,28 +2262,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2296,18 +2308,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2316,7 +2328,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2329,18 +2341,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2349,7 +2361,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2362,18 +2374,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2382,28 +2394,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2415,28 +2427,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2448,66 +2460,99 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1759.915</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>139</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>140</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>141</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>142</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>78</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>117</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1769.5150000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>143</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>144</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>145</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2731,10 +2776,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -137,93 +137,108 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -254,13 +269,25 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
     <t>39.00</t>
   </si>
   <si>
-    <t>12.8700</t>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
@@ -332,12 +359,6 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -383,9 +404,6 @@
     <t>اسيتون ايفا</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
@@ -410,7 +428,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -426,6 +444,12 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>22:0</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
@@ -1444,7 +1468,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1454,11 +1478,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1487,14 +1511,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,14 +1577,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1569,14 +1593,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,11 +1610,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1602,14 +1626,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1619,14 +1643,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,31 +1758,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1774,24 +1798,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1800,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1817,11 +1841,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1833,31 +1857,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,31 +1890,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,31 +1923,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,28 +1956,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,31 +2022,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,11 +2105,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2097,7 +2121,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2114,11 +2138,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2170,7 +2194,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2209,7 +2233,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2220,7 +2244,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2236,21 +2260,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2262,28 +2286,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2295,28 +2319,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2335,13 +2359,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2352,7 +2376,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2385,7 +2409,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2407,18 +2431,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2427,31 +2451,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2460,28 +2484,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2493,66 +2517,165 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1769.5150000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>143</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>144</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>145</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>147</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>53</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>83</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>43</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>148</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>127</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>83</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>128</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>149</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>150</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>83</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>124</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2103.3850000000002</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>151</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>152</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>153</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2781,10 +2904,25 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
+    <t>HAIR PHOTO SHAMPOO</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>219.0000</t>
+  </si>
+  <si>
     <t>HALONACE 5 MG 10 TABS.</t>
   </si>
   <si>
@@ -260,9 +272,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -446,6 +455,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -464,7 +482,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 6:12 PM</t>
+    <t>Monday, 16 June, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,18 +1789,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,20 +1809,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1812,10 +1830,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,20 +1842,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1864,7 +1882,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1881,7 +1899,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,31 +1941,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,20 +1974,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1996,13 +2014,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2013,7 +2031,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,24 +2047,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,20 +2073,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2095,7 +2113,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2112,7 +2130,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2128,7 +2146,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2154,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,11 +2189,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2187,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2222,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2227,7 +2245,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2277,7 +2295,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2293,21 +2311,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2319,28 +2337,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2352,28 +2370,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>17</v>
@@ -2392,13 +2410,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2431,7 +2449,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2442,7 +2460,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2464,7 +2482,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2475,7 +2493,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,18 +2515,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2517,28 +2535,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2550,28 +2568,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -2583,28 +2601,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -2616,66 +2634,132 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2103.3850000000002</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>151</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>152</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>153</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>154</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>130</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>80</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>131</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>155</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>156</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>80</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>127</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2352.3850000000002</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>157</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>158</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>159</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2919,10 +3003,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 6:14 PM</t>
+    <t>Monday, 16 June, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -362,9 +362,30 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -377,6 +398,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -437,9 +461,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -482,7 +503,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 6:17 PM</t>
+    <t>Monday, 16 June, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2179,7 +2200,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,14 +2210,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2205,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2243,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,7 +2259,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2255,11 +2276,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2278,7 +2299,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2337,28 +2358,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2370,28 +2391,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>17</v>
@@ -2403,31 +2424,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,28 +2457,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2469,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,14 +2540,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -2601,14 +2622,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2684,11 +2705,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -2707,7 +2728,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2717,49 +2738,181 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2352.3850000000002</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>157</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>158</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>159</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>80</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>139</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>53</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>80</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>43</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>161</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>138</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>80</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>139</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>162</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>163</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>80</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>135</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2466.6199999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>164</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>165</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>166</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3013,10 +3166,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -503,7 +503,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 6:31 PM</t>
+    <t>Monday, 16 June, 2025 6:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -200,7 +200,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>10:1</t>
   </si>
   <si>
     <t>36.00</t>
@@ -209,6 +209,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -338,9 +350,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -503,7 +512,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 6:50 PM</t>
+    <t>Monday, 16 June, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1649,11 +1658,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,11 +1691,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1738,7 +1747,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1752,10 +1761,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,31 +1806,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1843,18 +1852,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,31 +1872,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1903,21 +1912,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,31 +2004,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2035,21 +2044,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2061,31 +2070,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,20 +2103,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2118,7 +2127,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,17 +2143,17 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2167,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2184,7 +2193,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,11 +2252,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>17</v>
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2497,21 +2506,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2523,28 +2532,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2556,28 +2565,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2596,13 +2605,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2635,7 +2644,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2643,10 +2652,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2655,7 +2664,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2668,18 +2677,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2701,18 +2710,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2721,24 +2730,24 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2761,21 +2770,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -2787,28 +2796,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -2820,28 +2829,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -2853,66 +2862,99 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2466.6199999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>164</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>165</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>166</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>84</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>138</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2574.6199999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>167</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>168</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>169</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3186,10 +3228,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -230,6 +239,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>118.5000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX 40MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
   </si>
   <si>
@@ -299,6 +329,9 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -317,9 +350,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -395,15 +425,21 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TECNOVULA 50MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -428,9 +464,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -512,7 +545,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:17 PM</t>
+    <t>Monday, 16 June, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,7 +1318,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1295,14 +1328,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1311,14 +1344,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1328,11 +1361,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1344,14 +1377,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1361,14 +1394,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1377,14 +1410,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1394,14 +1427,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,14 +1443,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,14 +1460,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1443,14 +1476,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1460,14 +1493,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1476,14 +1509,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1493,14 +1526,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1509,14 +1542,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1526,14 +1559,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1542,14 +1575,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1582,7 +1615,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1599,7 +1632,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1615,7 +1648,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1625,11 +1658,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1641,14 +1674,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1658,14 +1691,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1674,14 +1707,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1691,7 +1724,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1714,7 +1747,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1724,7 +1757,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1747,7 +1780,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1764,7 +1797,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1773,14 +1806,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1794,7 +1827,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1806,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1823,14 +1856,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1839,31 +1872,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1872,7 +1905,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1889,14 +1922,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1905,31 +1938,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1951,15 +1984,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1971,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,14 +2021,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2004,28 +2037,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -2037,31 +2070,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2070,31 +2103,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2143,24 +2176,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2169,28 +2202,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2202,31 +2235,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2285,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,28 +2301,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2308,7 +2341,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2384,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,14 +2417,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2433,7 +2466,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2450,11 +2483,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2466,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2483,14 +2516,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,7 +2532,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2516,14 +2549,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,28 +2565,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2565,28 +2598,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2598,28 +2631,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -2631,31 +2664,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,31 +2697,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2730,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,28 +2763,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -2763,28 +2796,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -2796,28 +2829,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -2829,31 +2862,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2869,24 +2902,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2895,66 +2928,231 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2574.6199999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>167</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>168</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>169</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>48</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>94</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>170</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>172</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>173</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>94</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>153</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>174</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>56</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>94</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>46</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>175</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>152</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>94</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>153</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>176</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>177</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>94</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>150</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2930.1199999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>178</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>179</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>180</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3233,10 +3431,35 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>FELDENE FLASH 20 MG 10 FAST DISSOLVING TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
   </si>
   <si>
@@ -503,6 +512,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -545,7 +560,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:29 PM</t>
+    <t>Monday, 16 June, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1861,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1879,7 +1894,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1896,7 +1911,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1937,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1971,31 +1986,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2004,7 +2019,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2017,7 +2032,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2025,10 +2040,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2037,20 +2052,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2058,10 +2073,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2070,20 +2085,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2110,7 +2125,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,31 +2217,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2242,13 +2257,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2275,13 +2290,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2292,7 +2307,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2308,24 +2323,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2341,17 +2356,17 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2374,7 +2389,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2391,7 +2406,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2407,7 +2422,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2424,7 +2439,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2440,7 +2455,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2572,7 +2587,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,11 +2630,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2631,7 +2646,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2648,11 +2663,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2718,10 +2733,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,20 +2745,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2751,7 +2766,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -2763,28 +2778,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -2796,28 +2811,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>17</v>
@@ -2836,13 +2851,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2875,7 +2890,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2883,10 +2898,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2895,7 +2910,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2908,18 +2923,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2928,7 +2943,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2941,18 +2956,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2961,20 +2976,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -2982,7 +2997,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -2994,28 +3009,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3027,28 +3042,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3060,28 +3075,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3093,66 +3108,99 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2930.1199999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>178</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>179</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>180</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>181</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>182</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>97</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>153</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2981.1199999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>183</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>184</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>185</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3456,10 +3504,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -188,15 +188,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -401,6 +407,12 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>PAXOTRYPS 20 CAPS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -419,6 +431,15 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>SILDOCARE 8MG 30CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -560,7 +581,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:32 PM</t>
+    <t>Monday, 16 June, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1651,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1640,11 +1661,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1706,11 +1727,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1805,11 +1826,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1838,11 +1859,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1871,11 +1892,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1904,11 +1925,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1993,7 +2014,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2019,31 +2040,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2052,7 +2073,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2065,18 +2086,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2092,24 +2113,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2118,28 +2139,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,11 +2189,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,31 +2271,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,28 +2304,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2316,31 +2337,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2349,31 +2370,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2382,28 +2403,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2521,7 +2542,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2620,7 +2641,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>17</v>
@@ -2653,7 +2674,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -2785,21 +2806,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -2811,31 +2832,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2851,13 +2872,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2865,7 +2886,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -2877,20 +2898,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2917,24 +2938,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>168</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,31 +2964,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2976,7 +2997,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -2989,7 +3010,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -2997,7 +3018,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3009,31 +3030,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3082,21 +3103,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>17</v>
@@ -3108,28 +3129,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3141,66 +3162,165 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2981.1199999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>183</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>184</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>185</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>186</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>56</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>99</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>46</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>187</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>162</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>99</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>163</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>188</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>189</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>99</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>160</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3153.6700000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>190</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>191</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>192</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3509,10 +3629,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -581,7 +581,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:38 PM</t>
+    <t>Monday, 16 June, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -266,6 +266,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:5</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FELDENE FLASH 20 MG 10 FAST DISSOLVING TAB</t>
   </si>
   <si>
@@ -344,6 +356,15 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -416,9 +437,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -581,7 +599,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:48 PM</t>
+    <t>Monday, 16 June, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1915,7 +1933,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,11 +1976,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2014,7 +2032,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2028,10 +2046,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2040,14 +2058,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,14 +2075,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2073,31 +2091,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,18 +2137,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,31 +2157,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2179,21 +2197,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>17</v>
@@ -2205,14 +2223,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2222,11 +2240,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>17</v>
@@ -2238,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2255,14 +2273,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2271,14 +2289,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,11 +2306,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2304,31 +2322,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2337,31 +2355,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,31 +2388,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2403,28 +2421,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2436,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2471,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,31 +2487,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2520,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2537,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2553,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,14 +2570,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2586,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2603,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2608,7 +2626,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,11 +2636,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2634,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,14 +2669,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2667,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,11 +2702,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2700,14 +2718,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,14 +2735,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2740,7 +2758,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2768,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,14 +2784,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2783,14 +2801,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,14 +2817,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2816,11 +2834,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2849,14 +2867,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,14 +2883,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2882,11 +2900,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -2911,7 +2929,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2922,7 +2940,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2938,21 +2956,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -2964,28 +2982,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -2997,28 +3015,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3037,13 +3055,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3054,7 +3072,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3063,7 +3081,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3076,18 +3094,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3096,7 +3114,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3109,18 +3127,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3129,31 +3147,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3162,28 +3180,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>17</v>
@@ -3195,28 +3213,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3228,28 +3246,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3261,66 +3279,132 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3153.6700000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>190</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>191</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>192</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>193</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>168</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>103</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>169</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>194</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>195</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>103</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>166</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3233.5100000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>196</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>197</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>198</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3644,10 +3728,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -449,21 +449,21 @@
     <t>11.4500</t>
   </si>
   <si>
-    <t>SILDOCARE 8MG 30CAPS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -599,7 +599,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 7:54 PM</t>
+    <t>Monday, 16 June, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2659,7 +2659,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2685,14 +2685,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2702,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,14 +2718,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="P72" s="13">
-        <v>3233.5100000000002</v>
+        <v>3244.96</v>
       </c>
       <c r="Q72" s="13"/>
     </row>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>DOSTINEX 0.5 MG 2 TABS.</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>MONODEXIN 0.1% EYE DROPS 10*0.5 ML SDU</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -437,9 +455,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -599,7 +614,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:02 PM</t>
+    <t>Monday, 16 June, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1882,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1884,7 +1899,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1900,7 +1915,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1983,7 +1998,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1999,7 +2014,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2032,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2049,7 +2064,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2124,31 +2139,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2157,7 +2172,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2170,7 +2185,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2178,10 +2193,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2190,20 +2205,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2211,10 +2226,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,20 +2238,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2263,7 +2278,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2296,7 +2311,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,11 +2321,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>17</v>
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,31 +2403,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,31 +2436,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2461,13 +2476,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2478,7 +2493,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2494,17 +2509,17 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2527,7 +2542,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2544,7 +2559,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2560,24 +2575,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2956,7 +2971,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -2982,31 +2997,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,28 +3030,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>17</v>
@@ -3055,21 +3070,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3081,28 +3096,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>17</v>
@@ -3114,31 +3129,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>181</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3147,7 +3162,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3160,18 +3175,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3180,7 +3195,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3193,18 +3208,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3220,13 +3235,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3237,7 +3252,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3253,21 +3268,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3286,21 +3301,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>17</v>
@@ -3312,28 +3327,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3345,66 +3360,132 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3244.96</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>196</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>197</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>198</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>173</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>106</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>174</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>199</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>200</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>106</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>171</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3314.96</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>201</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>202</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>203</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3738,10 +3819,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -245,6 +257,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
@@ -314,9 +338,6 @@
     <t>118.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -404,9 +425,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -491,12 +509,6 @@
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -566,10 +578,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -614,7 +623,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:16 PM</t>
+    <t>Monday, 16 June, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1305,7 +1314,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1321,7 +1330,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1331,14 +1340,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1397,14 +1406,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1413,14 +1422,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1437,7 +1446,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1503,7 +1512,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1536,7 +1545,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1569,7 +1578,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1578,14 +1587,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,14 +1604,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1618,7 +1627,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1628,14 +1637,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1644,14 +1653,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,14 +1670,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1701,7 +1710,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1717,7 +1726,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1767,7 +1776,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1833,7 +1842,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1998,7 +2007,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2014,7 +2023,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,31 +2181,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,31 +2247,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2311,24 +2320,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,31 +2478,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,31 +2511,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,31 +2544,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2575,17 +2584,17 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2608,7 +2617,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2641,24 +2650,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2858,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2889,7 +2898,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2905,7 +2914,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3063,31 +3072,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,31 +3105,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,20 +3138,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3153,7 +3162,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3169,24 +3178,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3195,31 +3204,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,31 +3237,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3261,20 +3270,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3282,10 +3291,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3294,31 +3303,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3327,31 +3336,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3360,31 +3369,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3400,24 +3409,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3426,66 +3435,132 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3314.96</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>201</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>177</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>113</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>178</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>202</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>203</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>113</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>175</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3364.4400000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>204</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>205</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>206</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3829,10 +3904,20 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -623,7 +635,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:17 PM</t>
+    <t>Monday, 16 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1347,7 +1359,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1363,7 +1375,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1373,14 +1385,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1389,14 +1401,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1406,14 +1418,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1422,14 +1434,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1439,14 +1451,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1455,14 +1467,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1479,7 +1491,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1545,7 +1557,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1578,7 +1590,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1611,7 +1623,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1620,14 +1632,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1637,14 +1649,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1660,7 +1672,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1743,7 +1755,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1759,7 +1771,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1769,14 +1781,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1809,7 +1821,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1818,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1875,7 +1887,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1901,14 +1913,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1917,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1957,7 +1969,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1967,11 +1979,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2040,7 +2052,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2073,7 +2085,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2089,7 +2101,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2247,31 +2259,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2287,24 +2299,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2313,31 +2325,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2353,24 +2365,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2485,7 +2497,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2502,7 +2514,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,31 +2556,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,28 +2589,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2610,31 +2622,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2643,31 +2655,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2676,28 +2688,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,11 +2969,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3112,7 +3124,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3138,31 +3150,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3178,24 +3190,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,31 +3216,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,31 +3249,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3270,31 +3282,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>189</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3303,31 +3315,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>83</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3336,31 +3348,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3369,31 +3381,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3402,31 +3414,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3435,31 +3447,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3468,31 +3480,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3501,66 +3513,99 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3364.4400000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>204</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>205</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>206</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>207</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>117</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>179</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3393.1500000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>208</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>209</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>210</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3914,10 +3959,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -302,9 +323,6 @@
     <t>ERASTAPEX 40MG 30 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -359,12 +377,27 @@
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>GRODESIRE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>HAIR PHOTO SHAMPOO</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>219.00</t>
   </si>
   <si>
@@ -413,9 +446,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -437,9 +467,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NEROTONEX 20 CAPS</t>
   </si>
   <si>
@@ -449,15 +476,21 @@
     <t>112.5000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -551,6 +584,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -635,7 +677,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:24 PM</t>
+    <t>Monday, 16 June, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1870,7 +1912,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1880,14 +1922,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>78</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1920,7 +1962,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1946,11 +1988,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1962,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1979,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2002,7 +2044,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2019,7 +2061,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2035,7 +2077,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2045,14 +2087,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2061,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2085,7 +2127,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2101,7 +2143,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2111,14 +2153,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2127,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2144,11 +2186,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2160,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2184,7 +2226,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,7 +2259,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,7 +2289,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2259,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2276,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2292,7 +2334,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2305,15 +2347,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2325,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2342,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2371,7 +2413,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2382,7 +2424,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2404,15 +2446,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2424,28 +2466,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2457,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2497,24 +2539,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2573,11 +2615,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2589,31 +2631,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2622,31 +2664,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2655,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,11 +2714,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2688,31 +2730,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2721,28 +2763,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2754,7 +2796,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2767,18 +2809,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2787,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2846,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2827,7 +2869,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2841,10 +2883,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2853,28 +2895,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2886,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2903,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2919,14 +2961,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2936,11 +2978,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -2952,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2992,7 +3034,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3002,11 +3044,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3018,14 +3060,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3035,14 +3077,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3051,7 +3093,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3068,11 +3110,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3084,14 +3126,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3101,11 +3143,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3117,14 +3159,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3134,14 +3176,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,7 +3192,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3167,14 +3209,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3183,28 +3225,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3216,28 +3258,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3249,28 +3291,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3282,31 +3324,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3315,31 +3357,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>193</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3348,31 +3390,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3381,28 +3423,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3414,28 +3456,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3447,28 +3489,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3480,28 +3522,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3520,24 +3562,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3546,66 +3588,264 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>211</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>32</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>127</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>209</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>213</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>56</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>127</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>214</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>216</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>217</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>127</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>196</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>218</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>64</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>127</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>54</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>89</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3393.1500000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>208</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>209</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>210</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>219</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>195</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>127</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>196</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>220</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>221</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>127</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>190</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3698.4699999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>222</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>223</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>224</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3964,10 +4204,40 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -194,12 +206,36 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
     <t>33.6600</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
@@ -215,18 +251,21 @@
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -245,9 +284,6 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -293,9 +329,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -335,9 +368,6 @@
     <t>7:5</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -449,9 +479,6 @@
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>MONODEXIN 0.1% EYE DROPS 10*0.5 ML SDU</t>
   </si>
   <si>
@@ -677,7 +704,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:32 PM</t>
+    <t>Monday, 16 June, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1434,7 +1461,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1450,7 +1477,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1460,14 +1487,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1476,14 +1503,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1493,14 +1520,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1509,14 +1536,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1526,14 +1553,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1542,14 +1569,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1566,7 +1593,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1632,7 +1659,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1665,7 +1692,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1698,7 +1725,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1707,14 +1734,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1724,14 +1751,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1747,7 +1774,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1757,14 +1784,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1773,14 +1800,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1846,7 +1873,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1905,14 +1932,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1922,14 +1949,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1959,10 +1986,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2004,14 +2031,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2087,14 +2114,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2103,14 +2130,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2120,14 +2147,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2169,14 +2196,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,11 +2246,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2301,14 +2328,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2367,14 +2394,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2384,14 +2411,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2400,14 +2427,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,14 +2444,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2433,31 +2460,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2466,31 +2493,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,31 +2559,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,31 +2592,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2638,24 +2665,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2664,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,14 +2708,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2774,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,31 +2790,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,31 +2823,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2856,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2873,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,31 +2889,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,28 +2922,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2928,7 +2955,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,31 +3021,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,7 +3054,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3044,11 +3071,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3060,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3104,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3137,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,7 +3153,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3143,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,11 +3203,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3192,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3236,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3269,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,14 +3302,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,14 +3318,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,14 +3335,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3368,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,14 +3384,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3374,14 +3401,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3417,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3434,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3436,7 +3463,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3447,7 +3474,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3463,24 +3490,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,31 +3516,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,31 +3549,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,31 +3582,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3595,13 +3622,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3612,7 +3639,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3628,24 +3655,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3654,31 +3681,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3687,31 +3714,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3720,31 +3747,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3753,31 +3780,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3786,66 +3813,165 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3698.4699999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>222</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>223</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>224</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>227</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>76</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>137</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>58</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>228</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>204</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>137</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>205</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>229</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>230</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>137</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>199</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3833.77</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>231</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>232</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>233</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4234,10 +4360,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -692,6 +692,15 @@
     <t>22:0</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
@@ -704,7 +713,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:45 PM</t>
+    <t>Monday, 16 June, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3853,7 +3862,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3929,49 +3938,82 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>232</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>233</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>137</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>199</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q85" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3833.77</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>231</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>232</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>233</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3849.77</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>234</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>235</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>236</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4375,10 +4417,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -557,6 +557,9 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -659,7 +662,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -713,7 +716,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:46 PM</t>
+    <t>Monday, 16 June, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3235,7 +3238,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3268,7 +3271,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>29</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3311,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3367,7 +3370,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3400,7 +3403,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>29</v>
@@ -3466,7 +3469,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,7 +3528,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3542,14 +3545,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3631,7 +3634,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>29</v>
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>216</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>80</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3928,7 +3931,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -3961,7 +3964,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3971,49 +3974,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>233</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>234</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>137</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>200</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q86" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3849.77</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>234</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c t="s" r="Q87" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3894.77</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>235</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
         <v>236</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>237</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4422,10 +4458,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -404,6 +404,12 @@
     <t>118.00</t>
   </si>
   <si>
+    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -461,6 +467,15 @@
     <t>226.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -716,7 +731,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:47 PM</t>
+    <t>Monday, 16 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2512,7 +2527,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2571,31 +2586,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2617,15 +2632,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2637,7 +2652,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2650,18 +2665,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2677,24 +2692,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,28 +2718,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,11 +2867,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -2875,7 +2890,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2901,31 +2916,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,31 +2949,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,31 +2982,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,31 +3015,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,24 +3055,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3073,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3087,10 +3102,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,31 +3114,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3139,7 +3154,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3450,10 +3465,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3535,7 +3550,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,11 +3560,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3585,7 +3600,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3601,21 +3616,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3627,31 +3642,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3667,21 +3682,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -3693,28 +3708,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -3726,31 +3741,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>217</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,7 +3774,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3772,18 +3787,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,7 +3807,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3805,18 +3820,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3832,13 +3847,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3849,7 +3864,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3865,21 +3880,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -3898,13 +3913,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3915,7 +3930,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3931,21 +3946,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -3957,31 +3972,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3990,66 +4005,132 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>237</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>210</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>139</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>211</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>238</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>239</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>139</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>205</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3894.77</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>235</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>236</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>237</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q89" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3971.77</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>240</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>241</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>242</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4463,10 +4544,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -158,13 +158,16 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
@@ -251,9 +254,6 @@
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -287,13 +287,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>10:1</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
@@ -677,7 +677,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -686,7 +686,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -731,7 +731,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 8:54 PM</t>
+    <t>Monday, 16 June, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1719,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1728,14 +1728,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1761,14 +1761,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1778,14 +1778,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1794,14 +1794,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1827,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,11 +1844,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1893,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1926,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -1959,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1983,7 +1983,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1999,7 +1999,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2082,7 +2082,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,7 +2115,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2230,7 +2230,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2263,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2329,7 +2329,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2478,7 +2478,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2706,10 +2706,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2791,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2907,7 +2907,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -2989,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3088,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3286,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3484,7 +3484,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3600,7 +3600,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3715,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3748,7 +3748,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>222</v>
@@ -3864,7 +3864,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3913,7 +3913,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3996,7 +3996,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4012,7 +4012,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4100,7 +4100,7 @@
     </row>
     <row r="90" ht="24.75" customHeight="1">
       <c r="P90" s="13">
-        <v>3971.77</v>
+        <v>4057.77</v>
       </c>
       <c r="Q90" s="13"/>
     </row>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -287,13 +287,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>47.8800</t>
+    <t>59.7600</t>
   </si>
   <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
@@ -608,6 +605,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -620,9 +626,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -695,15 +698,21 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سويت افوفا</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -731,7 +740,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:03 PM</t>
+    <t>Monday, 16 June, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2107,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,11 +2150,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>29</v>
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2178,7 +2187,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2190,7 +2199,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2207,11 +2216,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>29</v>
@@ -2223,7 +2232,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2256,7 +2265,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2322,7 +2331,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2339,11 +2348,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2376,7 +2385,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2421,7 +2430,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2438,11 +2447,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2454,7 +2463,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2471,11 +2480,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>52</v>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,11 +2612,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2632,15 +2641,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2665,15 +2674,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2702,7 +2711,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2718,28 +2727,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -2784,7 +2793,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2801,11 +2810,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>29</v>
@@ -2817,7 +2826,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2834,11 +2843,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2871,7 +2880,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>75</v>
@@ -2916,7 +2925,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>29</v>
@@ -2949,7 +2958,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2995,7 +3004,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3003,7 +3012,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3028,15 +3037,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3048,7 +3057,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>29</v>
@@ -3081,7 +3090,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>29</v>
@@ -3114,28 +3123,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3180,7 +3189,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3234,7 +3243,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3300,7 +3309,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3378,7 +3387,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>29</v>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3444,7 +3453,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3477,7 +3486,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3510,7 +3519,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,7 +3651,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,28 +3717,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -3748,21 +3757,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>29</v>
@@ -3774,28 +3783,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3820,18 +3829,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3853,18 +3862,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>61</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3886,18 +3895,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3906,28 +3915,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>29</v>
@@ -3939,28 +3948,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -3979,24 +3988,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4005,28 +4014,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4038,31 +4047,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4071,66 +4080,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4057.77</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>240</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>211</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>138</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>212</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>241</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>242</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>138</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>206</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4151.6499999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>243</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>244</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>245</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4554,10 +4629,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -71,12 +71,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -221,12 +227,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>59.7600</t>
   </si>
   <si>
@@ -332,12 +341,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 50MG 10 SUPP</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -359,6 +377,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>FAKTU 8 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -470,9 +494,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -740,7 +761,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:11 PM</t>
+    <t>Monday, 16 June, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1457,11 +1478,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1473,14 +1494,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1490,11 +1511,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1523,14 +1544,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1539,14 +1560,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1556,14 +1577,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1572,14 +1593,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1589,14 +1610,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1612,7 +1633,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1622,14 +1643,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1655,14 +1676,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1688,11 +1709,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1721,14 +1742,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1737,14 +1758,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1754,14 +1775,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1770,14 +1791,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1787,14 +1808,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1836,14 +1857,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1853,14 +1874,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1869,14 +1890,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1886,7 +1907,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1909,7 +1930,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1926,7 +1947,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1952,14 +1973,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1968,14 +1989,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1985,14 +2006,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2018,14 +2039,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2067,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2117,14 +2138,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2216,14 +2237,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2249,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2381,11 +2402,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2602,7 +2623,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2628,31 +2649,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2661,31 +2682,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2727,31 +2748,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2760,31 +2781,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2793,31 +2814,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2859,31 +2880,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2998,24 +3019,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3031,24 +3052,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3074,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3123,28 +3144,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3156,28 +3177,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3255,28 +3276,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3328,7 +3349,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,7 +3408,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,11 +3458,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3477,7 +3498,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3559,7 +3580,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3576,7 +3597,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3592,7 +3613,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3602,14 +3623,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3625,7 +3646,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3668,14 +3689,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,31 +3738,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3783,31 +3804,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3816,31 +3837,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,31 +3870,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>223</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,31 +3903,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3915,31 +3936,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,31 +3969,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3981,31 +4002,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4014,31 +4035,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4080,31 +4101,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4120,24 +4141,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4159,53 +4180,185 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4151.6499999999996</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>243</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>38</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>146</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>244</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>245</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>246</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>81</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>146</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>61</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>247</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>218</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>146</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>219</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>248</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>249</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>146</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>213</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4323.3100000000004</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>250</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>251</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>252</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4639,10 +4792,30 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -101,12 +113,24 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -191,9 +215,6 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -338,9 +359,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -431,9 +449,27 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GABALEPSY 300MG 30 CAPS.</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -494,6 +530,9 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -536,6 +575,15 @@
     <t>112.5000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -545,6 +593,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -623,9 +677,6 @@
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -635,6 +686,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -650,9 +710,6 @@
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>WINZOXIB 90MG 20 TAB</t>
   </si>
   <si>
@@ -725,12 +782,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -761,7 +812,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:19 PM</t>
+    <t>Monday, 16 June, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,7 +1552,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1511,11 +1562,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1527,14 +1578,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1584,7 +1635,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1600,7 +1651,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1610,14 +1661,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1626,7 +1677,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1643,14 +1694,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1659,14 +1710,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1676,14 +1727,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1692,14 +1743,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1709,14 +1760,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1725,14 +1776,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1749,7 +1800,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1782,7 +1833,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1791,14 +1842,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1808,11 +1859,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1824,14 +1875,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,14 +1892,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1857,14 +1908,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1874,14 +1925,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1890,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1907,14 +1958,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1923,14 +1974,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1947,7 +1998,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1963,7 +2014,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,11 +2024,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1989,14 +2040,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,14 +2057,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2022,14 +2073,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,14 +2090,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,14 +2123,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>69</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2095,7 +2146,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,14 +2156,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2121,14 +2172,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2189,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2205,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2222,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,14 +2238,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2253,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2321,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2293,7 +2344,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2387,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2376,7 +2427,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2392,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2425,7 +2476,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2502,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2491,7 +2542,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,14 +2552,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2517,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2550,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2590,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,14 +2651,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2623,7 +2674,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2640,7 +2691,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2656,7 +2707,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2670,10 +2721,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2682,7 +2733,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2699,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,31 +2832,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2814,31 +2865,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,10 +2919,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2880,31 +2931,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2913,31 +2964,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2953,13 +3004,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2967,10 +3018,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3019,24 +3070,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3146,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,31 +3195,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,31 +3228,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3243,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3276,28 +3327,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3309,28 +3360,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3342,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3359,14 +3410,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,31 +3525,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3575,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3606,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,11 +3674,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3639,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,14 +3707,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,14 +3723,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,14 +3740,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,14 +3773,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3872,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,31 +3921,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,31 +3954,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,31 +3987,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,31 +4020,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,31 +4053,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>230</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,7 +4086,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4048,18 +4099,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,7 +4119,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4081,18 +4132,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4114,7 +4165,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4125,7 +4176,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4141,24 +4192,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4174,24 +4225,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4200,31 +4251,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4233,31 +4284,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4266,31 +4317,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4299,66 +4350,297 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>109</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4323.3100000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>250</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>251</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>252</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>255</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>256</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>158</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>147</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>257</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>70</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>158</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>147</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>258</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>259</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>158</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>238</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>260</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>46</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>158</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>261</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>263</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>88</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>158</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>68</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>264</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>237</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>158</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>238</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>265</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>266</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>158</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>36</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4650</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>267</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>268</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>269</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4812,10 +5094,45 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASMATROPIM 500MCG/2ML 20 NEBULIZER VIAL SOLN.</t>
+  </si>
+  <si>
+    <t>0:12</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>16.4000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -269,9 +284,6 @@
     <t>85.8000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
@@ -632,6 +644,18 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>9:15</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -758,7 +782,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -767,7 +794,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -812,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:52 PM</t>
+    <t>Monday, 16 June, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1711,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1727,14 +1754,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,14 +1853,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1932,7 +1959,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1998,7 +2025,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2051,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,14 +2067,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,11 +2084,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,11 +2117,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2106,14 +2133,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2150,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2179,7 +2206,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,14 +2282,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2271,14 +2298,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2509,7 +2536,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2744,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2766,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2810,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2799,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2955,7 +2982,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2971,24 +2998,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,31 +3024,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,31 +3057,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,31 +3090,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3103,24 +3130,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3129,14 +3156,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3206,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3305,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>38</v>
@@ -3294,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,14 +3338,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,31 +3354,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,28 +3387,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3393,31 +3420,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,31 +3552,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,28 +3585,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3635,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,14 +3833,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3866,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4037,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,14 +4080,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4103,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4136,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,31 +4179,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,31 +4212,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4245,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4278,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,31 +4311,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>249</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,31 +4344,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,31 +4377,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4383,31 +4410,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>256</v>
+        <v>51</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4416,31 +4443,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4449,31 +4476,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4482,31 +4509,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4515,31 +4542,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4548,31 +4575,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4581,66 +4608,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4650</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>267</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>268</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>269</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>273</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>245</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>162</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>246</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>274</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>275</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>162</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>41</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>4751.6000000000004</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>276</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>277</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>278</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5129,10 +5222,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 9:54 PM</t>
+    <t>Monday, 16 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:00 PM</t>
+    <t>Monday, 16 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:01 PM</t>
+    <t>Monday, 16 June, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:04 PM</t>
+    <t>Monday, 16 June, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>DECAPRENO 200.000 I.U / 1 ML SOL. FOR I.M / ORAL 2 AMPS.</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
   </si>
   <si>
@@ -545,6 +572,9 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LARIVEX 500 MG 5 TABS.</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -617,6 +647,15 @@
     <t>19.00</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -641,6 +680,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -665,6 +713,12 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -839,7 +893,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:06 PM</t>
+    <t>Monday, 16 June, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2326,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,14 +2336,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2298,14 +2352,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2369,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2338,7 +2392,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2355,7 +2409,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2371,7 +2425,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2435,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2451,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2421,7 +2475,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2437,7 +2491,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2501,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2517,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2503,7 +2557,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2567,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2529,14 +2583,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2569,7 +2623,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,11 +2633,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2602,7 +2656,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,11 +2666,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>43</v>
@@ -2628,14 +2682,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2699,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2678,11 +2732,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>43</v>
@@ -2694,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2711,14 +2765,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2727,14 +2781,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,7 +2798,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2767,7 +2821,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2831,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,7 +2871,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2833,7 +2887,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2847,10 +2901,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2859,7 +2913,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2876,11 +2930,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>43</v>
@@ -2892,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2963,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2979,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,14 +2996,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +3012,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,11 +3029,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>43</v>
@@ -2991,14 +3045,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3062,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,31 +3078,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3064,13 +3118,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3097,7 +3151,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3161,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,28 +3177,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>43</v>
@@ -3169,7 +3223,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3196,7 +3250,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3210,7 +3264,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>67</v>
@@ -3222,20 +3276,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3262,7 +3316,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,11 +3326,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3288,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,7 +3375,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3338,11 +3392,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>43</v>
@@ -3354,7 +3408,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3371,11 +3425,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>43</v>
@@ -3387,31 +3441,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,31 +3474,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3507,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,11 +3524,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>43</v>
@@ -3486,14 +3540,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,11 +3557,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>43</v>
@@ -3526,24 +3580,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,31 +3606,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3592,24 +3646,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3642,7 +3696,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3668,7 +3722,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3691,7 +3745,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,11 +3755,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>43</v>
@@ -3717,14 +3771,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3788,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,17 +3811,17 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3790,7 +3844,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3854,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3816,14 +3870,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,11 +3887,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>43</v>
@@ -3849,14 +3903,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,14 +3920,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,14 +3936,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,11 +3953,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>43</v>
@@ -3915,14 +3969,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,11 +4019,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3981,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,11 +4118,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>43</v>
@@ -4080,7 +4134,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4097,11 +4151,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>43</v>
@@ -4113,14 +4167,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,11 +4184,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>43</v>
@@ -4146,14 +4200,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,14 +4217,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4233,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4196,14 +4250,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4266,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4283,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,28 +4299,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>43</v>
@@ -4285,21 +4339,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>43</v>
@@ -4311,28 +4365,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>43</v>
@@ -4344,7 +4398,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4357,15 +4411,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>43</v>
@@ -4384,24 +4438,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>258</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,31 +4464,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,20 +4497,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4464,10 +4518,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,28 +4530,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>43</v>
@@ -4516,21 +4570,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4549,21 +4603,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>43</v>
@@ -4575,7 +4629,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4588,18 +4642,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4608,31 +4662,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>43</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4641,31 +4695,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4674,66 +4728,297 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>283</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>171</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>160</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>284</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>75</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>171</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>160</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>285</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>286</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>171</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>264</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>287</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>51</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>171</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>288</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>290</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>92</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>171</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>73</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>291</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>263</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>171</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>264</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>292</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>293</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>171</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>41</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>4751.6000000000004</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>276</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>277</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>278</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>4990.7200000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>294</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>295</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>296</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5232,10 +5517,45 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>154.5000</t>
+  </si>
+  <si>
     <t>BETAPRONATE PLUS CREAM 30 GM</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>CHOLEROSE 10MG 21 F.C.TAB</t>
@@ -305,6 +314,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -416,6 +434,18 @@
     <t>118.5000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>-69.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ERASTAPEX 40MG 30 TABLETS</t>
   </si>
   <si>
@@ -425,6 +455,9 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>FAKTU 8 RECTAL SUPP.</t>
   </si>
   <si>
@@ -452,9 +485,6 @@
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
-    <t>138.00</t>
-  </si>
-  <si>
     <t>45.5400</t>
   </si>
   <si>
@@ -488,6 +518,9 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>FUSIDERM 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -554,6 +587,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -617,6 +659,12 @@
     <t>112.5000</t>
   </si>
   <si>
+    <t>NEURONTIN 300MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>-54.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -632,9 +680,6 @@
     <t>38.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>OSTEO ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -683,12 +728,6 @@
     <t>PETRO 30 TAB</t>
   </si>
   <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -776,6 +815,15 @@
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
+    <t>VACATION WHITENING CREAM</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -893,7 +941,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:08 PM</t>
+    <t>Monday, 16 June, 2025 10:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1879,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1864,7 +1912,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1874,11 +1922,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>43</v>
@@ -1890,14 +1938,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1907,11 +1955,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>43</v>
@@ -1930,7 +1978,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1940,14 +1988,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1956,14 +2004,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1973,11 +2021,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1989,14 +2037,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2006,14 +2054,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2070,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2087,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2055,14 +2103,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2079,7 +2127,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2088,14 +2136,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2105,14 +2153,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2121,14 +2169,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2138,14 +2186,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2154,14 +2202,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2194,7 +2242,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2204,14 +2252,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2220,14 +2268,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2237,14 +2285,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2260,7 +2308,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,14 +2318,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2286,14 +2334,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2310,7 +2358,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2326,7 +2374,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2343,7 +2391,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2359,7 +2407,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,14 +2417,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,11 +2450,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2418,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,14 +2483,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2458,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2475,7 +2523,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2491,7 +2539,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2517,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2541,7 +2589,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2557,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2567,14 +2615,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2583,14 +2631,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2623,7 +2671,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2633,14 +2681,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2649,14 +2697,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2689,7 +2737,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2699,11 +2747,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2722,7 +2770,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2732,11 +2780,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>43</v>
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2765,14 +2813,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2788,7 +2836,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2798,11 +2846,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>43</v>
@@ -2814,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2831,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2847,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2864,11 +2912,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>43</v>
@@ -2880,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2897,14 +2945,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2920,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2930,11 +2978,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>43</v>
@@ -2946,14 +2994,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2963,14 +3011,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2979,14 +3027,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,11 +3044,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>43</v>
@@ -3019,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3029,14 +3077,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3052,7 +3100,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3085,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3095,14 +3143,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3111,14 +3159,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>43</v>
@@ -3144,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3161,14 +3209,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,28 +3225,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>43</v>
@@ -3210,28 +3258,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>43</v>
@@ -3243,14 +3291,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,14 +3308,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3276,28 +3324,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>43</v>
@@ -3309,14 +3357,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3374,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,31 +3390,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3375,28 +3423,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>43</v>
@@ -3408,14 +3456,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,14 +3473,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3441,28 +3489,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>43</v>
@@ -3481,7 +3529,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3507,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,11 +3572,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>43</v>
@@ -3540,14 +3588,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3573,31 +3621,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3606,31 +3654,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,14 +3687,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3704,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>43</v>
@@ -3672,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3712,7 +3760,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>43</v>
@@ -3738,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3755,11 +3803,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>43</v>
@@ -3778,21 +3826,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3804,28 +3852,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3837,14 +3885,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3902,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>43</v>
@@ -3903,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,11 +3968,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3936,14 +3984,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>43</v>
@@ -3969,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +4034,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4050,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,11 +4067,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4035,28 +4083,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4068,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4101,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>43</v>
@@ -4141,7 +4189,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4199,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4174,7 +4222,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>43</v>
@@ -4200,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4281,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4266,14 +4314,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,14 +4331,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,14 +4347,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,14 +4364,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4332,14 +4380,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,11 +4397,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>43</v>
@@ -4372,7 +4420,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,11 +4430,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>43</v>
@@ -4398,14 +4446,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4463,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>43</v>
@@ -4438,7 +4486,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4448,14 +4496,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4481,14 +4529,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4504,7 +4552,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4514,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,28 +4578,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>43</v>
@@ -4563,28 +4611,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4596,28 +4644,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>43</v>
@@ -4629,28 +4677,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>43</v>
@@ -4662,31 +4710,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,31 +4743,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,28 +4776,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>43</v>
@@ -4761,31 +4809,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>43</v>
@@ -4827,28 +4875,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>43</v>
@@ -4860,31 +4908,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4893,28 +4941,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>43</v>
@@ -4926,31 +4974,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4959,66 +5007,330 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>296</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>54</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>182</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>294</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>298</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>299</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>182</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>171</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>300</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>78</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>182</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>171</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>301</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>302</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>182</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>280</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>303</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>54</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>182</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>304</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>306</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>95</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>182</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>76</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>307</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>279</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>182</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>280</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>308</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>309</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>182</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>41</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>4990.7200000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>294</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>295</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>296</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5235.4899999999998</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>310</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>311</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>312</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5552,10 +5864,50 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:19 PM</t>
+    <t>Monday, 16 June, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2935,7 +2935,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2949,10 +2949,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -5300,7 +5300,7 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>5235.4899999999998</v>
+        <v>5304.4899999999998</v>
       </c>
       <c r="Q120" s="13"/>
     </row>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:20 PM</t>
+    <t>Monday, 16 June, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -710,6 +710,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -770,12 +779,6 @@
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -941,7 +944,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:24 PM</t>
+    <t>Monday, 16 June, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4140,7 +4143,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4156,7 +4159,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4185,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4202,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4235,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4251,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4305,7 +4308,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4321,7 +4324,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4380,14 +4383,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4400,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4413,14 +4416,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,11 +4466,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>43</v>
@@ -4486,7 +4489,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4499,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4512,14 +4515,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,11 +4532,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4552,7 +4555,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4585,7 +4588,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>43</v>
@@ -4618,7 +4621,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>43</v>
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>43</v>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>43</v>
@@ -4723,15 +4726,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>43</v>
@@ -4743,31 +4746,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4826,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,31 +4845,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4875,14 +4878,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,11 +4895,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>43</v>
@@ -4915,7 +4918,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,11 +4928,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>43</v>
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,11 +4961,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>43</v>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4991,14 +4994,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>292</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5007,7 +5010,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5024,14 +5027,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>95</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5040,7 +5043,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5057,14 +5060,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>43</v>
@@ -5106,14 +5109,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5146,7 +5149,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5156,11 +5159,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>43</v>
@@ -5172,14 +5175,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5189,14 +5192,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5205,14 +5208,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5222,14 +5225,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5245,7 +5248,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5255,11 +5258,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>43</v>
@@ -5278,7 +5281,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5288,49 +5291,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>309</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>310</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>182</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>41</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>42</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5304.4899999999998</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>310</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c t="s" r="Q120" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5360.4899999999998</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>311</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
         <v>312</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>313</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5904,10 +5940,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:25 PM</t>
+    <t>Monday, 16 June, 2025 10:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -944,7 +944,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:26 PM</t>
+    <t>Monday, 16 June, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.05% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>43.00</t>
-  </si>
-  <si>
     <t>86.0000</t>
   </si>
   <si>
@@ -338,6 +344,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -371,6 +383,9 @@
     <t>59.7600</t>
   </si>
   <si>
+    <t>DERMOFIX 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -596,6 +611,12 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>ITRANOX 100MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -614,6 +635,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>LARIVEX 500 MG 5 TABS.</t>
   </si>
   <si>
@@ -716,9 +746,6 @@
     <t>56.00</t>
   </si>
   <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -764,9 +791,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -944,7 +968,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:28 PM</t>
+    <t>Monday, 16 June, 2025 10:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1635,7 +1659,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1694,14 +1718,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1717,7 +1741,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1727,14 +1751,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1743,14 +1767,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1767,7 +1791,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1800,7 +1824,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1809,14 +1833,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1866,7 +1890,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1882,7 +1906,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1899,7 +1923,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1932,7 +1956,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1948,7 +1972,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1958,14 +1982,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1991,14 +2015,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2014,7 +2038,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2024,11 +2048,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2040,14 +2064,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2057,14 +2081,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2090,14 +2114,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2106,14 +2130,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2139,14 +2163,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2156,14 +2180,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2205,14 +2229,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2222,11 +2246,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2238,14 +2262,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2255,14 +2279,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2271,14 +2295,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2288,14 +2312,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2304,14 +2328,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,14 +2345,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2337,14 +2361,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2378,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,14 +2411,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2403,14 +2427,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2444,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2460,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2477,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2509,7 +2533,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,11 +2543,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2535,14 +2559,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,11 +2576,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,14 +2625,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,14 +2741,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2750,11 +2774,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,14 +2807,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2799,14 +2823,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,11 +2840,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2832,14 +2856,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2873,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2889,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,14 +2922,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2939,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,14 +2955,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,14 +2972,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,14 +2988,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +3005,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,14 +3021,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,11 +3038,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3030,14 +3054,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3071,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3087,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,11 +3104,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3096,14 +3120,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3113,14 +3137,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3129,14 +3153,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3170,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,14 +3186,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,14 +3203,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3195,14 +3219,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3236,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3228,14 +3252,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3269,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3268,7 +3292,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3282,10 +3306,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3318,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,11 +3335,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3334,7 +3358,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,14 +3368,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3360,14 +3384,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,11 +3401,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3393,31 +3417,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3426,31 +3450,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3500,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,31 +3516,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,28 +3549,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,31 +3615,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3624,14 +3648,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,14 +3665,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,14 +3698,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3764,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3763,7 +3787,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3780,7 +3804,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3796,7 +3820,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3830,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3829,21 +3853,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3855,28 +3879,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3895,7 +3919,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3929,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>144</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3928,7 +3952,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3945,7 +3969,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3961,7 +3985,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,11 +3995,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3987,31 +4011,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,31 +4044,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,28 +4110,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4119,7 +4143,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4136,14 +4160,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4185,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4226,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,31 +4275,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4291,7 +4315,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4317,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4383,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4433,14 +4457,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,14 +4506,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4499,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,14 +4539,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4581,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4622,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4655,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4688,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4697,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4730,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,31 +4770,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,14 +4803,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4796,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4829,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4862,11 +4886,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4878,31 +4902,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>51</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,31 +4935,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,31 +4968,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,31 +5001,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,31 +5034,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>293</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,31 +5067,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>54</v>
+        <v>288</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,31 +5100,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5109,31 +5133,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5142,31 +5166,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5175,31 +5199,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>303</v>
+        <v>57</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>43</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5208,31 +5232,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5241,31 +5265,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5274,31 +5298,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5314,59 +5338,224 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5360.4899999999998</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>310</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>311</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>187</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>289</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>312</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>57</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>187</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
         <v>313</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>315</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>97</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>187</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>78</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>316</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>288</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>187</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>289</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>317</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>318</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>187</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>45</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>5554.1300000000001</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>319</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>320</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>321</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5945,10 +6134,35 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -152,6 +152,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -212,9 +227,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -800,6 +812,9 @@
     <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -911,10 +926,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -968,7 +980,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:29 PM</t>
+    <t>Monday, 16 June, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1918,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1932,7 +1944,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1949,11 +1961,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1982,11 +1994,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2015,11 +2027,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2048,11 +2060,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2114,11 +2126,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2203,7 +2215,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2236,7 +2248,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2286,7 +2298,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2418,7 +2430,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2444,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2510,11 +2522,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2675,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2774,11 +2786,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2807,11 +2819,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2840,11 +2852,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2929,7 +2941,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3028,7 +3040,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3045,7 +3057,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3149,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3335,7 +3347,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3507,7 +3519,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3523,24 +3535,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,28 +3561,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3582,31 +3594,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3615,31 +3627,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3655,24 +3667,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3681,7 +3693,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3863,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,11 +3908,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4011,31 +4023,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4044,28 +4056,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>17</v>
@@ -4077,31 +4089,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,28 +4287,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>17</v>
@@ -4308,31 +4320,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,7 +4353,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4403,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4513,7 +4525,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,11 +4568,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>127</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4589,11 +4601,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>17</v>
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4634,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,11 +4667,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,11 +4700,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,14 +4733,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4770,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,14 +4815,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4820,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4836,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,11 +4865,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,11 +4898,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4902,14 +4914,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4919,11 +4931,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4935,28 +4947,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,14 +4997,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5001,28 +5013,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5034,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,28 +5079,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5100,31 +5112,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5140,21 +5152,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5166,28 +5178,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5199,31 +5211,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>301</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5232,31 +5244,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5265,31 +5277,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>306</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5298,31 +5310,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5338,21 +5350,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>177</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5364,28 +5376,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5397,31 +5409,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>180</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>314</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5430,28 +5442,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5470,24 +5482,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5496,66 +5508,132 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>320</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>293</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>191</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>294</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>321</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>322</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>191</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>45</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>5554.1300000000001</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>319</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>320</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>321</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>5663.1099999999997</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>323</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>324</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>325</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6159,10 +6237,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -827,6 +827,9 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
     <t>TECNOVULA 50MG 20 TABLETS</t>
   </si>
   <si>
@@ -917,7 +920,7 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -980,7 +983,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:32 PM</t>
+    <t>Monday, 16 June, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4822,7 +4825,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,14 +4835,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4855,7 +4858,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4888,7 +4891,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,11 +4901,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4921,7 +4924,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,11 +4934,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4947,14 +4950,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4980,7 +4983,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4997,11 +5000,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5026,15 +5029,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5046,31 +5049,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5082,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,14 +5099,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5129,14 +5132,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,31 +5148,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5181,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5218,7 +5221,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5231,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5244,14 +5247,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,11 +5264,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5277,7 +5280,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5294,14 +5297,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5310,7 +5313,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5327,14 +5330,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>101</v>
+        <v>306</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5343,7 +5346,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5360,14 +5363,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5376,14 +5379,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5393,11 +5396,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5409,14 +5412,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5449,7 +5452,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>315</v>
+        <v>84</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5459,11 +5462,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5475,14 +5478,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5492,14 +5495,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5508,14 +5511,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5525,14 +5528,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5548,7 +5551,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5558,11 +5561,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5581,7 +5584,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5591,49 +5594,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>322</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>323</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>191</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>45</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>5663.1099999999997</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>323</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>5702.1099999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>324</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>325</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>326</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6247,10 +6283,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -983,7 +983,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:39 PM</t>
+    <t>Monday, 16 June, 2025 10:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -152,6 +152,30 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -197,9 +221,6 @@
     <t>BISOLOCK-D 5/12.5MG 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -281,9 +302,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -311,6 +329,15 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>CLINDASOL 0.3GM/30ML TOPICAL SOLUTION 30 ML</t>
   </si>
   <si>
@@ -668,6 +695,9 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -734,6 +764,15 @@
     <t>19.00</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -875,7 +914,13 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>26.00</t>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -929,7 +974,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>27:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -938,9 +986,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -983,7 +1028,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:47 PM</t>
+    <t>Monday, 16 June, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1938,7 +1983,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1947,14 +1992,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1987,7 +2032,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1997,14 +2042,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2013,14 +2058,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2030,11 +2075,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -2046,14 +2091,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2063,11 +2108,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2079,14 +2124,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2096,11 +2141,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2112,14 +2157,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2129,14 +2174,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2152,7 +2197,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2162,14 +2207,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2195,14 +2240,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2228,11 +2273,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -2244,14 +2289,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2261,14 +2306,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2277,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2294,14 +2339,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2310,14 +2355,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2327,14 +2372,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2343,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2367,7 +2412,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2383,7 +2428,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2393,11 +2438,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -2409,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2426,14 +2471,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2442,14 +2487,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2459,14 +2504,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2475,14 +2520,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2492,14 +2537,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2508,7 +2553,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2525,14 +2570,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2541,14 +2586,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2565,7 +2610,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2581,7 +2626,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2591,14 +2636,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2607,7 +2652,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2624,14 +2669,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2640,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2657,11 +2702,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2673,14 +2718,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2690,14 +2735,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2706,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2723,14 +2768,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2746,7 +2791,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2756,14 +2801,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2772,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2789,14 +2834,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2805,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2822,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2838,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2855,14 +2900,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2871,14 +2916,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2888,11 +2933,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2904,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2925,10 +2970,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2937,14 +2982,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2954,7 +2999,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2977,7 +3022,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2987,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3003,14 +3048,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3020,14 +3065,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3043,7 +3088,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3053,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3076,7 +3121,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3086,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3102,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3119,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3135,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3152,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3168,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3185,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3201,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3218,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3234,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3251,14 +3296,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3267,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3284,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3300,7 +3345,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3317,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3333,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3350,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3366,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3383,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3399,7 +3444,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3416,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3432,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3449,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3465,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3482,14 +3527,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3498,7 +3543,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3515,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3531,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3548,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3564,31 +3609,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3604,13 +3649,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3637,7 +3682,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3647,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3663,28 +3708,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3703,13 +3748,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3720,7 +3765,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3736,7 +3781,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3746,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3769,21 +3814,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3795,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3812,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3828,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3845,7 +3890,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3868,7 +3913,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3878,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3894,14 +3939,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3911,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3927,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3944,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3960,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3977,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3993,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4010,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4026,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4043,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4059,31 +4104,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4092,31 +4137,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4125,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4142,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4158,14 +4203,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4175,11 +4220,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4191,28 +4236,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>17</v>
@@ -4231,24 +4276,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4257,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4274,14 +4319,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4290,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>83</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4311,10 +4356,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4323,28 +4368,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>17</v>
@@ -4363,7 +4408,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4373,11 +4418,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4396,7 +4441,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4410,10 +4455,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4422,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4439,7 +4484,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4462,7 +4507,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4472,11 +4517,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4488,31 +4533,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4521,14 +4566,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4538,14 +4583,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4554,7 +4599,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4571,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4587,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4604,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4620,7 +4665,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4637,11 +4682,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>17</v>
@@ -4653,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4670,11 +4715,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4686,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4703,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4719,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4736,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4752,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4769,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4785,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4802,11 +4847,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4818,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4835,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4851,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4868,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4884,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4901,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4917,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4934,11 +4979,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4950,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4967,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4983,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5000,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5016,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5033,14 +5078,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5049,28 +5094,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5082,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5099,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>149</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5122,7 +5167,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5132,11 +5177,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5148,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5165,14 +5210,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5181,28 +5226,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>295</v>
+        <v>64</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5214,28 +5259,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>46</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5247,31 +5292,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>53</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5287,13 +5332,13 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5304,7 +5349,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5320,24 +5365,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>306</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5346,31 +5391,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5379,24 +5424,24 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5419,21 +5464,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>313</v>
+        <v>44</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5445,28 +5490,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5478,31 +5523,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5511,31 +5556,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>76</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5544,31 +5589,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5577,28 +5622,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5610,66 +5655,264 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>329</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>91</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>200</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>189</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>330</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>331</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>200</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>310</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>332</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>52</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>200</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>333</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>335</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>110</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>200</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>89</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>336</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>309</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>200</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>310</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>337</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>338</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>200</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>45</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>5702.1099999999997</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>324</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>325</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>326</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6021.1099999999997</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>339</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>340</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>341</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6288,10 +6531,40 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -632,13 +632,10 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>65.0000</t>
+    <t>130.0000</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -875,6 +872,9 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:49 PM</t>
+    <t>Monday, 16 June, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3814,7 +3814,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,14 +3824,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3857,11 +3857,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3956,11 +3956,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>83</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3989,11 +3989,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>17</v>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4055,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>42</v>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4187,11 +4187,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4286,11 +4286,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>162</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4352,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4484,11 +4484,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4500,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4533,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4616,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4731,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>42</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4781,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4979,11 +4979,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5012,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5094,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5115,10 +5115,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>110</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1">
       <c r="P135" s="13">
-        <v>6021.1099999999997</v>
+        <v>6136.1099999999997</v>
       </c>
       <c r="Q135" s="13"/>
     </row>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -419,7 +419,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>59.7600</t>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>71.6400</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>DERMOFIX 2% CREAM 15 GM</t>
@@ -653,6 +659,12 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -668,9 +680,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -782,10 +791,10 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>27.0000</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>54.0000</t>
   </si>
   <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
@@ -974,10 +983,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>27:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1028,7 +1034,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:52 PM</t>
+    <t>Monday, 16 June, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2890,7 +2896,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2904,10 +2910,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,7 +2922,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2982,14 +2988,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3003,7 +3009,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3065,7 +3071,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>17</v>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3180,7 +3186,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3197,14 +3203,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,7 +3219,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3263,7 +3269,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3279,7 +3285,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3300,7 +3306,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3333,7 +3339,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3378,7 +3384,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3428,11 +3434,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3444,7 +3450,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>83</v>
@@ -3477,7 +3483,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3510,7 +3516,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3527,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3576,7 +3582,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3593,11 +3599,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3659,11 +3665,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,11 +3698,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3708,7 +3714,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3721,15 +3727,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3741,7 +3747,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3754,15 +3760,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3791,7 +3797,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3807,28 +3813,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>83</v>
@@ -3840,7 +3846,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3873,7 +3879,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>17</v>
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4078,7 +4084,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4094,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4210,7 +4216,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4236,31 +4242,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,28 +4275,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>17</v>
@@ -4309,24 +4315,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>162</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4375,7 +4381,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4389,10 +4395,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4467,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,11 +4490,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4507,7 +4513,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,14 +4523,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4546,15 +4552,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4573,24 +4579,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,7 +4605,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4616,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4639,7 +4645,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4788,7 +4794,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4804,7 +4810,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4820,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4830,14 +4836,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,11 +4853,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4886,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,11 +4919,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4946,14 +4952,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4968,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +4985,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5018,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5035,7 +5041,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5061,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5084,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5100,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5117,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,14 +5133,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5150,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,11 +5183,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5200,7 +5206,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,11 +5249,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5259,7 +5265,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5272,15 +5278,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5299,24 +5305,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5325,14 +5331,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,14 +5348,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>53</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5375,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5408,14 +5414,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,24 +5437,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5457,28 +5463,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5490,28 +5496,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5530,13 +5536,13 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5547,7 +5553,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5569,7 +5575,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5580,7 +5586,7 @@
         <v>321</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>322</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5589,7 +5595,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5602,18 +5608,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>110</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5635,18 +5641,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5662,21 +5668,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>328</v>
+        <v>52</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>189</v>
+        <v>326</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5695,21 +5701,21 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>91</v>
+        <v>330</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5721,28 +5727,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5761,24 +5767,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5787,31 +5793,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>144</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5820,28 +5826,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5853,66 +5859,99 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>339</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>340</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>202</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>45</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>6136.1099999999997</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>339</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>340</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6212.9899999999998</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>341</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>342</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>343</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6561,10 +6600,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -284,9 +296,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>EFEMYO OPHTH. SUSP. 10 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX 40MG 30 TABLETS</t>
   </si>
   <si>
@@ -824,6 +842,15 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -962,12 +989,6 @@
     <t>حامل زراع زولا</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1034,7 +1055,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:58 PM</t>
+    <t>Monday, 16 June, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2253,7 +2274,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2279,11 +2300,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2368,7 +2389,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2401,7 +2422,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2451,7 +2472,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2467,7 +2488,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2484,7 +2505,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2500,7 +2521,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2510,14 +2531,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2566,7 +2587,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2583,7 +2604,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2599,7 +2620,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2649,7 +2670,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2665,7 +2686,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2682,7 +2703,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2698,7 +2719,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2731,7 +2752,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,11 +2795,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2830,7 +2851,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2863,7 +2884,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2880,7 +2901,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2896,7 +2917,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>138</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2939,14 +2960,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2972,11 +2993,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3005,7 +3026,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3028,7 +3049,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3038,7 +3059,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3061,7 +3082,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3075,10 +3096,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3108,10 +3129,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3193,7 +3214,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3210,7 +3231,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3219,7 +3240,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3259,7 +3280,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3302,11 +3323,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3318,14 +3339,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3335,14 +3356,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,7 +3389,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3391,7 +3412,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,11 +3422,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3417,14 +3438,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3450,14 +3471,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3504,7 +3525,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,11 +3587,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3582,7 +3603,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3599,11 +3620,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3632,14 +3653,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,11 +3686,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3698,11 +3719,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3714,28 +3735,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3754,24 +3775,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3780,7 +3801,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3793,18 +3814,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,31 +3834,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3886,24 +3907,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3962,14 +3983,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4011,14 +4032,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,14 +4049,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,14 +4082,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,14 +4115,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4127,11 +4148,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4226,11 +4247,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,14 +4280,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4275,31 +4296,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4308,31 +4329,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4341,31 +4362,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>164</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,31 +4395,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4407,7 +4428,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4424,14 +4445,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>145</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4440,14 +4461,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,11 +4478,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,14 +4511,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,11 +4544,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4560,10 +4581,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4579,24 +4600,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4612,7 +4633,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4643,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4638,31 +4659,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4671,14 +4692,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4688,11 +4709,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4704,14 +4725,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,11 +4742,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4754,11 +4775,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4770,14 +4791,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4836,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>142</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4869,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,14 +4907,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>148</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4935,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4952,14 +4973,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4968,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4985,14 +5006,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5001,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,11 +5039,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5034,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5051,14 +5072,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5067,14 +5088,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5084,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5117,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5133,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5150,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5183,11 +5204,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5199,14 +5220,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5216,14 +5237,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5232,14 +5253,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5249,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>117</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5265,7 +5286,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5282,11 +5303,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5298,28 +5319,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5331,14 +5352,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5348,14 +5369,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5364,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5381,11 +5402,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5397,28 +5418,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5430,14 +5451,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5447,14 +5468,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5463,28 +5484,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5496,20 +5517,20 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5529,31 +5550,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5562,31 +5583,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5595,31 +5616,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>324</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5635,24 +5656,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5661,7 +5682,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5674,18 +5695,18 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5701,24 +5722,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5727,31 +5748,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5760,28 +5781,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5793,31 +5814,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>335</v>
+        <v>197</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>336</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5826,28 +5847,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5859,28 +5880,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5892,66 +5913,165 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>344</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>113</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>208</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>93</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>345</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>321</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>208</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>322</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>346</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>347</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>208</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>45</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6212.9899999999998</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>341</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>342</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>343</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>6338.9899999999998</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>348</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>349</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>350</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6605,10 +6725,25 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -230,6 +230,24 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BLANKA CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -440,6 +458,15 @@
     <t>DERMOFIX 2% CREAM 15 GM</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -653,6 +680,9 @@
     <t>17.00</t>
   </si>
   <si>
+    <t>HARVY SOAP 80 GM</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -1034,6 +1064,12 @@
     <t>22:0</t>
   </si>
   <si>
+    <t>كحول 70%</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1055,7 +1091,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 10:59 PM</t>
+    <t>Monday, 16 June, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2257,7 +2293,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2267,11 +2303,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2283,14 +2319,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2300,14 +2336,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2316,14 +2352,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2333,14 +2369,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2349,14 +2385,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2366,14 +2402,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2382,14 +2418,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2399,11 +2435,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -2415,14 +2451,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2432,14 +2468,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2448,14 +2484,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2465,14 +2501,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2481,14 +2517,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2498,14 +2534,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2514,14 +2550,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2538,7 +2574,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2554,7 +2590,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2564,11 +2600,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -2580,14 +2616,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2597,14 +2633,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2613,14 +2649,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2630,14 +2666,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2653,7 +2689,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2663,14 +2699,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2679,14 +2715,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2696,14 +2732,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2712,14 +2748,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2736,7 +2772,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2752,7 +2788,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2769,7 +2805,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2785,7 +2821,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2795,14 +2831,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2811,14 +2847,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2828,14 +2864,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2844,14 +2880,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2861,14 +2897,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2877,14 +2913,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2894,14 +2930,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2917,7 +2953,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2934,7 +2970,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2950,7 +2986,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2960,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2976,7 +3012,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2993,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3009,14 +3045,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3026,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3042,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3059,11 +3095,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3075,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3092,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3108,14 +3144,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3129,10 +3165,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3141,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3158,7 +3194,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3181,7 +3217,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3191,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3207,14 +3243,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3224,14 +3260,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3247,7 +3283,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3257,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3280,7 +3316,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3290,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3306,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3323,11 +3359,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3339,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3356,14 +3392,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,7 +3408,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3389,11 +3425,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3405,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3422,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3438,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3455,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3471,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3488,14 +3524,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3504,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3521,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3537,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3554,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3570,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3587,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3603,7 +3639,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3620,11 +3656,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3636,7 +3672,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3653,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3669,7 +3705,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3686,11 +3722,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3702,14 +3738,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3719,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3735,7 +3771,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3752,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3768,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3785,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3801,31 +3837,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3841,13 +3877,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3874,7 +3910,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3884,14 +3920,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3900,31 +3936,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3933,31 +3969,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3966,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3983,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3999,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,11 +4052,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4039,13 +4075,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4056,7 +4092,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4072,7 +4108,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4086,10 +4122,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4098,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4115,7 +4151,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4138,7 +4174,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4148,11 +4184,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4164,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,11 +4217,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4197,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4214,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4230,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4247,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4263,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4296,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,11 +4349,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4329,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,11 +4382,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4362,31 +4398,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4395,31 +4431,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4428,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4461,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,11 +4514,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4494,28 +4530,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4540,18 +4576,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4560,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4593,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4610,11 +4646,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4626,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4647,7 +4683,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>17</v>
@@ -4666,24 +4702,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4692,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4725,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4742,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4758,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4798,24 +4834,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4824,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,11 +4877,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4857,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4874,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4890,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>36</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4923,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4940,11 +4976,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4956,7 +4992,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4973,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5022,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5039,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5055,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5072,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5088,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5105,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5138,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5154,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5171,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5187,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5204,11 +5240,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5220,14 +5256,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5237,14 +5273,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5253,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5270,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,14 +5322,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5303,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5319,14 +5355,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5336,11 +5372,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>303</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5352,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5369,14 +5405,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5385,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5402,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,7 +5454,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5431,15 +5467,15 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5458,7 +5494,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5468,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>53</v>
+        <v>312</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5484,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5501,11 +5537,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5517,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5534,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5550,31 +5586,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5583,31 +5619,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5616,28 +5652,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5649,28 +5685,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5682,31 +5718,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5715,31 +5751,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5748,31 +5784,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5781,28 +5817,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5821,24 +5857,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>197</v>
+        <v>337</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5847,31 +5883,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5880,31 +5916,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5913,7 +5949,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5926,18 +5962,18 @@
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5946,28 +5982,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -5979,28 +6015,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6012,66 +6048,231 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>351</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>352</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>217</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>270</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>353</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>52</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>217</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>354</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>355</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>356</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>119</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>217</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>99</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>357</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>331</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>217</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>332</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>358</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>359</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>217</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>45</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>6338.9899999999998</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>348</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>349</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>350</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c t="s" r="Q143" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="P144" s="13">
+        <v>6866.8699999999999</v>
+      </c>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" ht="16.5" customHeight="1">
+      <c t="s" r="A145" s="14">
+        <v>360</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c t="s" r="G145" s="15">
+        <v>361</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c t="s" r="K145" s="17">
+        <v>362</v>
+      </c>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="697">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6740,10 +6941,35 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="P144:Q144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="K145:Q145"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -749,6 +749,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -893,6 +902,12 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -1091,7 +1106,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:11 PM</t>
+    <t>Monday, 16 June, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4372,7 +4387,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4504,7 +4519,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,11 +4529,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4530,31 +4545,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4595,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>17</v>
@@ -4603,24 +4618,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4661,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4669,7 +4684,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4683,10 +4698,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,14 +4710,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4727,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4728,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,11 +4760,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4761,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,11 +4793,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4801,7 +4816,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4826,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4840,18 +4855,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4867,24 +4882,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4893,7 +4908,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4910,14 +4925,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4933,7 +4948,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4958,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,14 +4974,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4991,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,11 +5057,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5065,7 +5080,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,14 +5090,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5091,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5115,7 +5130,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5131,7 +5146,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,11 +5156,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -5157,14 +5172,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,11 +5189,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5190,14 +5205,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5222,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,14 +5238,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5271,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5288,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5304,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,11 +5321,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>279</v>
+        <v>160</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5322,14 +5337,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5387,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5388,14 +5403,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,11 +5420,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>17</v>
@@ -5421,14 +5436,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5453,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5475,10 +5490,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,7 +5502,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5504,14 +5519,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,7 +5535,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5537,11 +5552,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5553,14 +5568,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,11 +5585,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5586,7 +5601,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5599,15 +5614,15 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5619,14 +5634,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,14 +5651,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5659,13 +5674,13 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5692,7 +5707,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,14 +5717,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,7 +5733,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5735,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5751,28 +5766,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5784,31 +5799,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5824,7 +5839,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,11 +5849,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5850,14 +5865,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5882,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5883,14 +5898,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,14 +5915,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>341</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5916,7 +5931,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5933,14 +5948,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5966,14 +5981,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5982,14 +5997,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>347</v>
+        <v>52</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,14 +6014,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6015,14 +6030,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6032,11 +6047,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>207</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
@@ -6048,14 +6063,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6065,11 +6080,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6081,14 +6096,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6098,11 +6113,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6114,14 +6129,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6131,14 +6146,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6154,7 +6169,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6164,11 +6179,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
@@ -6180,14 +6195,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6197,14 +6212,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6213,14 +6228,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6230,49 +6245,115 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>362</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>336</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>217</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>337</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>363</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>364</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>217</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>45</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q143" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" ht="25.5" customHeight="1">
-      <c r="P144" s="13">
-        <v>6866.8699999999999</v>
-      </c>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" ht="16.5" customHeight="1">
-      <c t="s" r="A145" s="14">
-        <v>360</v>
-      </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c t="s" r="G145" s="15">
-        <v>361</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c t="s" r="K145" s="17">
-        <v>362</v>
-      </c>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c t="s" r="Q145" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>6917.6899999999996</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>365</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>366</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>367</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="697">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6966,10 +7047,20 @@
     <mergeCell ref="H143:K143"/>
     <mergeCell ref="L143:M143"/>
     <mergeCell ref="N143:O143"/>
-    <mergeCell ref="P144:Q144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="K145:Q145"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve"> بودره نلج خمس خمسات</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACRETIN 0.05% CREAM 30 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -143,9 +158,6 @@
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -662,9 +674,6 @@
     <t>GRODESIRE SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>HAIR PHOTO SHAMPOO</t>
   </si>
   <si>
@@ -890,6 +899,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -1022,18 +1040,18 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>اسيتون ايفا</t>
   </si>
   <si>
+    <t>ببرونه الجو كبيره</t>
+  </si>
+  <si>
     <t>حامل زراع زولا</t>
   </si>
   <si>
+    <t>حمام كريم فاتيكا الصغير</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -1106,7 +1124,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:13 PM</t>
+    <t>Monday, 16 June, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1764,7 +1782,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1773,31 +1791,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1806,31 +1824,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1839,31 +1857,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1872,31 +1890,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1905,31 +1923,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1938,31 +1956,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1971,31 +1989,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2017,7 +2035,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -2028,7 +2046,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2037,20 +2055,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -2061,7 +2079,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2083,7 +2101,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2094,7 +2112,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2116,7 +2134,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2127,7 +2145,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2136,20 +2154,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2160,7 +2178,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2169,31 +2187,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2202,31 +2220,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2235,31 +2253,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2268,31 +2286,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2301,31 +2319,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2334,31 +2352,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2367,20 +2385,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2391,7 +2409,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2413,7 +2431,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2424,7 +2442,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2446,18 +2464,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2466,31 +2484,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2512,18 +2530,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2539,24 +2557,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2565,20 +2583,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2589,7 +2607,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2605,24 +2623,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2631,31 +2649,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2664,31 +2682,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2697,31 +2715,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2730,31 +2748,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2763,20 +2781,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2787,7 +2805,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2803,24 +2821,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2829,31 +2847,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2862,31 +2880,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2895,31 +2913,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2928,31 +2946,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2961,31 +2979,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2994,31 +3012,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3027,31 +3045,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3060,31 +3078,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3100,24 +3118,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3126,31 +3144,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3159,31 +3177,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3205,18 +3223,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3225,31 +3243,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3258,31 +3276,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3331,24 +3349,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3390,31 +3408,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3436,7 +3454,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3447,7 +3465,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3456,31 +3474,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3489,31 +3507,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3522,31 +3540,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3555,31 +3573,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3588,31 +3606,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3621,31 +3639,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3654,7 +3672,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3667,18 +3685,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3687,31 +3705,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3720,31 +3738,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3753,31 +3771,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3786,31 +3804,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3819,31 +3837,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3852,31 +3870,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3885,31 +3903,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3918,20 +3936,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3942,7 +3960,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3958,24 +3976,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3984,31 +4002,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4024,7 +4042,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4038,10 +4056,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4050,31 +4068,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4083,31 +4101,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4123,7 +4141,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4140,7 +4158,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4156,24 +4174,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4182,31 +4200,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4215,31 +4233,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4255,13 +4273,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4269,10 +4287,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4281,31 +4299,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4321,24 +4339,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4347,31 +4365,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4387,13 +4405,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4404,7 +4422,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4420,24 +4438,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4446,31 +4464,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4479,31 +4497,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4512,31 +4530,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4552,24 +4570,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4578,31 +4596,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4611,7 +4629,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4624,18 +4642,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4651,7 +4669,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>176</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4677,31 +4695,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4717,13 +4735,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4731,10 +4749,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4743,31 +4761,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4776,31 +4794,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4809,31 +4827,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4849,24 +4867,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4888,18 +4906,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4915,7 +4933,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4925,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4941,31 +4959,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4981,24 +4999,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5007,31 +5025,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5040,31 +5058,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5073,31 +5091,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5113,24 +5131,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5139,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>85</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5179,24 +5197,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5205,31 +5223,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5238,31 +5256,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,31 +5289,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5304,31 +5322,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5337,31 +5355,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5370,31 +5388,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5403,31 +5421,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,31 +5454,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,31 +5487,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5502,31 +5520,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5535,31 +5553,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>317</v>
+        <v>127</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5601,31 +5619,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5641,24 +5659,24 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5667,31 +5685,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5700,31 +5718,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5733,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5750,14 +5768,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5766,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,31 +5817,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5832,31 +5850,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5865,31 +5883,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5898,31 +5916,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,31 +5949,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>343</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5971,24 +5989,24 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>345</v>
+        <v>49</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>346</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5997,31 +6015,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>348</v>
+        <v>85</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6030,31 +6048,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>348</v>
+        <v>127</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6063,31 +6081,31 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>352</v>
+        <v>56</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>207</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6096,31 +6114,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>12</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6129,31 +6147,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>355</v>
+        <v>56</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6162,31 +6180,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6195,31 +6213,31 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>52</v>
+        <v>358</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>360</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6228,31 +6246,31 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q143" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
@@ -6261,31 +6279,31 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q144" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" ht="24.75" customHeight="1">
@@ -6294,66 +6312,198 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>6917.6899999999996</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>364</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>56</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>13</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
         <v>365</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
         <v>366</v>
       </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
+      <c t="s" r="Q146" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
         <v>367</v>
       </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>123</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>13</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>103</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>368</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>342</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>13</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>14</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>369</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>370</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>13</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>49</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>7132.6899999999996</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>371</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>372</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>373</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7057,10 +7207,30 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-16_00-00.xlsx
+++ b/DaySale_2025-06-16_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ACNESCAVE 0.1% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
     <t>ACRETIN 0.05% CREAM 30 GM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
@@ -737,6 +749,9 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -749,6 +764,15 @@
     <t>LARIVEX 500 MG 5 TABS.</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>MAALOX PLUS (LEMON FLAVOURED) 355ML SUSP.</t>
   </si>
   <si>
@@ -860,9 +884,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>54.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -884,6 +905,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PEA  400 MGTAB</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -1088,6 +1118,15 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>شامبو كلير حريمي 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1124,7 +1163,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 16 June, 2025 11:19 PM</t>
+    <t>Monday, 16 June, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,21 +1837,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1824,20 +1863,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1848,7 +1887,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1870,7 +1909,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1881,7 +1920,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1903,18 +1942,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1923,31 +1962,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1963,24 +2002,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1989,20 +2028,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -2013,7 +2052,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2035,7 +2074,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -2046,7 +2085,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2055,20 +2094,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -2079,7 +2118,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2088,20 +2127,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
      